--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/ComparingSalaryBonusTemplate.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/ComparingSalaryBonusTemplate.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. UK\01. Source\UniversalK\nts.uk\file\pr\nts.uk.file.pr.infra\src\main\resources\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="3675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,6 @@
     <definedName name="RangeOffice">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
-  <si>
-    <t>社員</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>&amp;=HEADER.nameCompany</t>
   </si>
@@ -78,6 +79,52 @@
   </si>
   <si>
     <t>Total2</t>
+  </si>
+  <si>
+    <t>&amp;=HEADERTABLE.month1</t>
+  </si>
+  <si>
+    <t>&amp;=HEADERTABLE.month2</t>
+  </si>
+  <si>
+    <t>&amp;=HEADERTABLE.differentSalary</t>
+  </si>
+  <si>
+    <t>&amp;=HEADERTABLE.registrationStatus1</t>
+  </si>
+  <si>
+    <t>&amp;=HEADERTABLE.registrationStatus2</t>
+  </si>
+  <si>
+    <t>&amp;=HEADERTABLE.reason</t>
+  </si>
+  <si>
+    <t>&amp;=HEADERTABLE.confirmed</t>
+  </si>
+  <si>
+    <t>&amp;=DEPARTMENT.Depcode</t>
+  </si>
+  <si>
+    <t>&amp;=DEPARTMENT.Depname</t>
+  </si>
+  <si>
+    <t>部門</t>
+  </si>
+  <si>
+    <t>社員コード</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>&amp;=EMPLOYEE.Empcode</t>
+  </si>
+  <si>
+    <t>&amp;=EMPLOYEE.Empname</t>
+  </si>
+  <si>
+    <t>&amp;=HEADERTABLE.itemName</t>
   </si>
 </sst>
 </file>
@@ -87,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +154,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -349,10 +414,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,21 +465,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -423,6 +487,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,57 +511,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -493,8 +554,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -814,194 +876,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" customWidth="1"/>
-    <col min="3" max="9" width="11.28515625" style="5" customWidth="1"/>
+    <col min="3" max="7" width="11.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="5" customWidth="1"/>
     <col min="10" max="10" width="10" style="5" customWidth="1"/>
     <col min="11" max="16" width="11.28515625" style="5" customWidth="1"/>
     <col min="17" max="17" width="15.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+    <row r="1" spans="1:17">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="Q1" s="6">
         <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>42845.699552893515</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>42860.587235879633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="B2" s="3"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="1:17" ht="21" customHeight="1">
+      <c r="A8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="43"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="A9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="40"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1019,148 +1093,141 @@
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+    <row r="14" spans="1:17" ht="15" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
+      <c r="A15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="32"/>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="30"/>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="36" t="s">
         <v>8</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>9</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="27"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="27"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="27"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="22"/>
-      <c r="N17" s="27"/>
+      <c r="N17" s="26"/>
       <c r="O17" s="22"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="39"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="31"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="33"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="27"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="27"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="22"/>
-      <c r="N19" s="27"/>
+      <c r="N19" s="26"/>
       <c r="O19" s="22"/>
       <c r="P19" s="23"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="29"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="30"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1176,9 +1243,9 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="11"/>
@@ -1196,9 +1263,9 @@
       <c r="O22" s="11"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="15"/>
@@ -1216,10 +1283,10 @@
       <c r="O23" s="15"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:17" ht="15" customHeight="1"/>
+    <row r="25" spans="1:17" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="61">
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:Q4"/>
@@ -1233,22 +1300,21 @@
     <mergeCell ref="A9:B11"/>
     <mergeCell ref="C9:D11"/>
     <mergeCell ref="E9:F11"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G9:H11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
@@ -1268,7 +1334,6 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A14:P14"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="I16:J16"/>
@@ -1282,6 +1347,7 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/ComparingSalaryBonusTemplate.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/ComparingSalaryBonusTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="3675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="3675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,27 +81,6 @@
     <t>Total2</t>
   </si>
   <si>
-    <t>&amp;=HEADERTABLE.month1</t>
-  </si>
-  <si>
-    <t>&amp;=HEADERTABLE.month2</t>
-  </si>
-  <si>
-    <t>&amp;=HEADERTABLE.differentSalary</t>
-  </si>
-  <si>
-    <t>&amp;=HEADERTABLE.registrationStatus1</t>
-  </si>
-  <si>
-    <t>&amp;=HEADERTABLE.registrationStatus2</t>
-  </si>
-  <si>
-    <t>&amp;=HEADERTABLE.reason</t>
-  </si>
-  <si>
-    <t>&amp;=HEADERTABLE.confirmed</t>
-  </si>
-  <si>
     <t>&amp;=DEPARTMENT.Depcode</t>
   </si>
   <si>
@@ -124,7 +103,28 @@
     <t>&amp;=EMPLOYEE.Empname</t>
   </si>
   <si>
-    <t>&amp;=HEADERTABLE.itemName</t>
+    <t>&amp;=HEADER.itemName</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.month1</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.month2</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.differentSalary</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.registrationStatus1</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.registrationStatus2</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.reason</t>
+  </si>
+  <si>
+    <t>&amp;=HEADER.confirmed</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,90 +468,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -877,14 +880,16 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D11"/>
+      <selection activeCell="A13" sqref="A13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="4" customWidth="1"/>
-    <col min="3" max="7" width="11.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="5" customWidth="1"/>
+    <col min="5" max="7" width="11.28515625" style="5" customWidth="1"/>
     <col min="8" max="8" width="24.140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="5" customWidth="1"/>
     <col min="10" max="10" width="10" style="5" customWidth="1"/>
@@ -893,15 +898,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="Q1" s="6">
         <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>42860.587235879633</v>
+        <v>42860.622851504631</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -911,238 +916,238 @@
       <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40" t="s">
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40" t="s">
+      <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
+      <c r="A14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40" t="s">
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40" t="s">
+      <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="40"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="32"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="41"/>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="39"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="42"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
@@ -1150,20 +1155,20 @@
         <v>8</v>
       </c>
       <c r="B17" s="37"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="43"/>
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
@@ -1171,20 +1176,20 @@
         <v>9</v>
       </c>
       <c r="B18" s="39"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="42"/>
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1">
@@ -1192,40 +1197,40 @@
         <v>10</v>
       </c>
       <c r="B19" s="37"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="30"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="40"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="C21" s="8"/>
@@ -1287,51 +1292,6 @@
     <row r="25" spans="1:17" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:Q4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="I9:J11"/>
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="M9:N11"/>
-    <mergeCell ref="O9:P11"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="C9:D11"/>
-    <mergeCell ref="E9:F11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G9:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M16:N16"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="A13:P13"/>
@@ -1348,6 +1308,51 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G9:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I9:J11"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="M9:N11"/>
+    <mergeCell ref="O9:P11"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="C9:D11"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:Q4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/ComparingSalaryBonusTemplate.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/ComparingSalaryBonusTemplate.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. UK\01. Source\UniversalK\nts.uk\file\pr\nts.uk.file.pr.infra\src\main\resources\report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="3675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16125" windowHeight="3675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +20,7 @@
     <definedName name="RangeOffice">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,12 +77,6 @@
     <t>Total2</t>
   </si>
   <si>
-    <t>&amp;=DEPARTMENT.Depcode</t>
-  </si>
-  <si>
-    <t>&amp;=DEPARTMENT.Depname</t>
-  </si>
-  <si>
     <t>部門</t>
   </si>
   <si>
@@ -97,12 +87,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>&amp;=EMPLOYEE.Empcode</t>
-  </si>
-  <si>
-    <t>&amp;=EMPLOYEE.Empname</t>
-  </si>
-  <si>
     <t>&amp;=HEADER.itemName</t>
   </si>
   <si>
@@ -125,6 +109,18 @@
   </si>
   <si>
     <t>&amp;=HEADER.confirmed</t>
+  </si>
+  <si>
+    <t>&amp;=employee.Empcode</t>
+  </si>
+  <si>
+    <t>&amp;=employee.Empname</t>
+  </si>
+  <si>
+    <t>&amp;=department.Depcode</t>
+  </si>
+  <si>
+    <t>&amp;=department.Depname</t>
   </si>
 </sst>
 </file>
@@ -879,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:P13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -906,7 +902,7 @@
       <c r="D1" s="21"/>
       <c r="Q1" s="6">
         <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>42860.622851504631</v>
+        <v>42860.782423958335</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1001,35 +997,35 @@
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P9" s="23"/>
     </row>
@@ -1071,13 +1067,13 @@
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
@@ -1100,13 +1096,13 @@
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
